--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value630.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value630.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.219506600068852</v>
+        <v>1.21161150932312</v>
       </c>
       <c r="B1">
-        <v>2.32520783451305</v>
+        <v>2.440092086791992</v>
       </c>
       <c r="C1">
-        <v>3.744923188071574</v>
+        <v>4.737422466278076</v>
       </c>
       <c r="D1">
-        <v>3.108324637376904</v>
+        <v>2.57009220123291</v>
       </c>
       <c r="E1">
-        <v>1.103675939687343</v>
+        <v>1.086347103118896</v>
       </c>
     </row>
   </sheetData>
